--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Eworkflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F144D2AA-AA36-4CEE-A746-F9233F4CEC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B67A05-3ADC-42EB-96F2-357C8A6459C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30135" yWindow="1365" windowWidth="17280" windowHeight="8880" xr2:uid="{4D5C5CB8-3658-4B42-AAD8-0CC44657F25D}"/>
+    <workbookView xWindow="30300" yWindow="630" windowWidth="17280" windowHeight="8880" xr2:uid="{4D5C5CB8-3658-4B42-AAD8-0CC44657F25D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Flujo</t>
   </si>
@@ -105,9 +105,6 @@
     <t>NumeroTramite</t>
   </si>
   <si>
-    <t>shuanca</t>
-  </si>
-  <si>
     <t>FechaInicio</t>
   </si>
   <si>
@@ -120,15 +117,9 @@
     <t>HoraFin</t>
   </si>
   <si>
-    <t>rcondori</t>
-  </si>
-  <si>
     <t>USUARIO</t>
   </si>
   <si>
-    <t>aalcon</t>
-  </si>
-  <si>
     <t>ROLUSUARIO</t>
   </si>
   <si>
@@ -154,6 +145,24 @@
   </si>
   <si>
     <t>Notificacion</t>
+  </si>
+  <si>
+    <t>iot123</t>
+  </si>
+  <si>
+    <t>open123</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Mostrar</t>
+  </si>
+  <si>
+    <t>Votar</t>
   </si>
 </sst>
 </file>
@@ -191,12 +200,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -226,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -246,6 +261,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A249CE-F88D-4464-B390-66A94FE63F0E}">
-  <dimension ref="B1:I30"/>
+  <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>15</v>
@@ -671,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>15</v>
@@ -688,86 +706,92 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="7">
-        <v>44718</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H12" s="7">
-        <v>44718</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -775,25 +799,25 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>1000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7">
         <v>44718</v>
       </c>
       <c r="G13" s="8">
-        <v>0.4381944444444445</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="H13" s="7">
         <v>44718</v>
       </c>
       <c r="I13" s="8">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -801,32 +825,48 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>1000</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7">
         <v>44718</v>
       </c>
       <c r="G14" s="8">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="H14" s="7">
+        <v>44718</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="7">
+        <v>44718</v>
+      </c>
+      <c r="G15" s="8">
         <v>0.50069444444444444</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
@@ -843,88 +883,86 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>36</v>
+      <c r="F21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>24</v>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="F24" s="1">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
@@ -932,14 +970,22 @@
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="1">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
         <v>3</v>
       </c>
     </row>
